--- a/biology/Zoologie/Henry_Edwin_Barnes/Henry_Edwin_Barnes.xlsx
+++ b/biology/Zoologie/Henry_Edwin_Barnes/Henry_Edwin_Barnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Edwin Barnes est un officier et un  ornithologue britannique, né en 1848 à Oxford et mort en 1896.
 Il fait ses études à l’université d'Oxford. Il est stationné à Aden, en Afghanistan et en Inde. Il fait paraître un guide sur les oiseaux de la région de Bombay, Handbook to the birds of the Bombay Presidency, en 1885. Il est membre de la Zoological Society of London.
@@ -512,14 +524,16 @@
           <t>Liste des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Barnes, H E (1880): Notes on the nidification of certain species in the neighbourhood of Chaman, S. Afghanistan. Stray Feathers. 9(1,2&amp;3), 212-220.
 Barnes, H E (1881): A list of birds observed in the neighbourhood of Chaman, S. Afghanistan. Stray Feathers. 9(5&amp;6), 449-460.
 Barnes, H E (1881): Letters to the Editor. Stray Feathers. 10(1,2&amp;3), 166-167.
 Swinhoe, C, Barnes, H (1885): On the birds of Central India-Part I. Ibis, 5 3(9):52-69.
 Swinhoe, C, Barnes, H (1885): On the birds of Central India-Part II. Ibis, 5 3(10):124-138.
-Barnes,H E (1885)): Handbook to the Birds of the Bombay Presidency. The Calcutta Central Press Co., Ltd.,, Calcutta. 449 pages.
+Barnes,H E (1885)): Handbook to the Birds of the Bombay Presidency. The Calcutta Central Press Co., Ltd. Calcutta. 449 pages.
 Barnes, H E (1886): Birds' nesting in Rajpootana. JBNHS. 1(2):38-62.
 Barnes, H E (1886): Birds' nesting in Rajpootana. JBNHS. 1(2):308-362.
 Barnes, H E (1886): Note on the breeding of Parra indica. JBNHS. 1(4):221-222.
